--- a/Project/code/intermediate/models/ViT_transformer_training_run.xlsx
+++ b/Project/code/intermediate/models/ViT_transformer_training_run.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guilh\OneDrive - Universidade de Lisboa\FCUL\2 Semestre\AP\fcul-deep-learning\Project\code\intermediate\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F68047A-3CEA-4036-9A56-EA7682441B8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D3AF94-2C2E-41C0-8254-671B3EB9C47C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{D5D5AA35-74E1-48B5-8B40-F7F143EE954A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="43">
   <si>
     <t>ID</t>
   </si>
@@ -165,27 +165,6 @@
   </si>
   <si>
     <t>adam</t>
-  </si>
-  <si>
-    <t>05/24/2024 18:16:42</t>
-  </si>
-  <si>
-    <t>05/24/2024 20:03:00</t>
-  </si>
-  <si>
-    <t>05/24/2024 21:56:46</t>
-  </si>
-  <si>
-    <t>05/25/2024 00:07:30</t>
-  </si>
-  <si>
-    <t>05/25/2024 00:07:31</t>
-  </si>
-  <si>
-    <t>05/25/2024 02:06:19</t>
-  </si>
-  <si>
-    <t>05/25/2024 03:55:30</t>
   </si>
 </sst>
 </file>
@@ -582,8 +561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21DE1A40-317B-4C4F-BDA5-208CBC9591CE}">
   <dimension ref="A1:AH6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="AF2" sqref="AF2:AH6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -721,10 +700,10 @@
         <v>100</v>
       </c>
       <c r="J2">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="K2">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -784,16 +763,7 @@
         <v>0.5</v>
       </c>
       <c r="AE2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AH2">
-        <v>0.38632874311148452</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
@@ -825,10 +795,10 @@
         <v>100</v>
       </c>
       <c r="J3">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="K3">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="L3">
         <v>1</v>
@@ -888,16 +858,7 @@
         <v>0.5</v>
       </c>
       <c r="AE3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AH3">
-        <v>0.37447147104372502</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
@@ -929,10 +890,10 @@
         <v>100</v>
       </c>
       <c r="J4">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="K4">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -992,16 +953,7 @@
         <v>0.5</v>
       </c>
       <c r="AE4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH4">
-        <v>0.39316879612794792</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
@@ -1033,10 +985,10 @@
         <v>100</v>
       </c>
       <c r="J5">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="K5">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="L5">
         <v>1</v>
@@ -1096,16 +1048,7 @@
         <v>0.5</v>
       </c>
       <c r="AE5" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH5">
-        <v>0.44073874655792239</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
@@ -1137,10 +1080,10 @@
         <v>100</v>
       </c>
       <c r="J6">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="K6">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -1200,16 +1143,7 @@
         <v>0.5</v>
       </c>
       <c r="AE6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>49</v>
-      </c>
-      <c r="AH6">
-        <v>0.42557365014017251</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
